--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cirbp-Trem1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cirbp-Trem1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.80625466666667</v>
+        <v>18.496333</v>
       </c>
       <c r="H2">
-        <v>47.418764</v>
+        <v>55.488999</v>
       </c>
       <c r="I2">
-        <v>0.3671299365398358</v>
+        <v>0.3902867652967038</v>
       </c>
       <c r="J2">
-        <v>0.3671299365398357</v>
+        <v>0.3902867652967038</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,33 +555,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>71.97801199999999</v>
+        <v>0.09428199999999999</v>
       </c>
       <c r="N2">
-        <v>215.934036</v>
+        <v>0.282846</v>
       </c>
       <c r="O2">
-        <v>0.9574677988575694</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9574677988575693</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>1137.702788072389</v>
+        <v>1.743871267906</v>
       </c>
       <c r="R2">
-        <v>10239.3250926515</v>
+        <v>15.694841411154</v>
       </c>
       <c r="S2">
-        <v>0.3515150922335157</v>
+        <v>0.3902867652967038</v>
       </c>
       <c r="T2">
-        <v>0.3515150922335156</v>
+        <v>0.3902867652967038</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.80625466666667</v>
+        <v>12.34551533333333</v>
       </c>
       <c r="H3">
-        <v>47.418764</v>
+        <v>37.036546</v>
       </c>
       <c r="I3">
-        <v>0.3671299365398358</v>
+        <v>0.260499810712076</v>
       </c>
       <c r="J3">
-        <v>0.3671299365398357</v>
+        <v>0.260499810712076</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>3.197374666666666</v>
+        <v>0.09428199999999999</v>
       </c>
       <c r="N3">
-        <v>9.592123999999998</v>
+        <v>0.282846</v>
       </c>
       <c r="O3">
-        <v>0.04253220114243066</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.04253220114243065</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>50.53851824608177</v>
+        <v>1.163959876657333</v>
       </c>
       <c r="R3">
-        <v>454.8466642147359</v>
+        <v>10.475638889916</v>
       </c>
       <c r="S3">
-        <v>0.0156148443063201</v>
+        <v>0.260499810712076</v>
       </c>
       <c r="T3">
-        <v>0.01561484430632009</v>
+        <v>0.260499810712076</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.34551533333333</v>
+        <v>11.24015833333333</v>
       </c>
       <c r="H4">
-        <v>37.036546</v>
+        <v>33.720475</v>
       </c>
       <c r="I4">
-        <v>0.2867477689345658</v>
+        <v>0.2371759330532953</v>
       </c>
       <c r="J4">
-        <v>0.2867477689345658</v>
+        <v>0.2371759330532953</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,33 +679,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>71.97801199999999</v>
+        <v>0.09428199999999999</v>
       </c>
       <c r="N4">
-        <v>215.934036</v>
+        <v>0.282846</v>
       </c>
       <c r="O4">
-        <v>0.9574677988575694</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.9574677988575693</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>888.6056508088506</v>
+        <v>1.059744607983333</v>
       </c>
       <c r="R4">
-        <v>7997.450857279656</v>
+        <v>9.537701471849999</v>
       </c>
       <c r="S4">
-        <v>0.2745517551490976</v>
+        <v>0.2371759330532953</v>
       </c>
       <c r="T4">
-        <v>0.2745517551490976</v>
+        <v>0.2371759330532953</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,294 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.34551533333333</v>
+        <v>5.309641333333333</v>
       </c>
       <c r="H5">
-        <v>37.036546</v>
+        <v>15.928924</v>
       </c>
       <c r="I5">
-        <v>0.2867477689345658</v>
+        <v>0.112037490937925</v>
       </c>
       <c r="J5">
-        <v>0.2867477689345658</v>
+        <v>0.1120374909379251</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.197374666666666</v>
+        <v>0.09428199999999999</v>
       </c>
       <c r="N5">
-        <v>9.592123999999998</v>
+        <v>0.282846</v>
       </c>
       <c r="O5">
-        <v>0.04253220114243066</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.04253220114243065</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>39.47323797374489</v>
+        <v>0.5006036041893333</v>
       </c>
       <c r="R5">
-        <v>355.259141763704</v>
+        <v>4.505432437704</v>
       </c>
       <c r="S5">
-        <v>0.01219601378546818</v>
+        <v>0.112037490937925</v>
       </c>
       <c r="T5">
-        <v>0.01219601378546818</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>9.108990999999998</v>
-      </c>
-      <c r="H6">
-        <v>27.326973</v>
-      </c>
-      <c r="I6">
-        <v>0.2115734156064423</v>
-      </c>
-      <c r="J6">
-        <v>0.2115734156064423</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>71.97801199999999</v>
-      </c>
-      <c r="N6">
-        <v>215.934036</v>
-      </c>
-      <c r="O6">
-        <v>0.9574677988575694</v>
-      </c>
-      <c r="P6">
-        <v>0.9574677988575693</v>
-      </c>
-      <c r="Q6">
-        <v>655.6470635058918</v>
-      </c>
-      <c r="R6">
-        <v>5900.823571553026</v>
-      </c>
-      <c r="S6">
-        <v>0.202574732537478</v>
-      </c>
-      <c r="T6">
-        <v>0.202574732537478</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>9.108990999999998</v>
-      </c>
-      <c r="H7">
-        <v>27.326973</v>
-      </c>
-      <c r="I7">
-        <v>0.2115734156064423</v>
-      </c>
-      <c r="J7">
-        <v>0.2115734156064423</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>3.197374666666666</v>
-      </c>
-      <c r="N7">
-        <v>9.592123999999998</v>
-      </c>
-      <c r="O7">
-        <v>0.04253220114243066</v>
-      </c>
-      <c r="P7">
-        <v>0.04253220114243065</v>
-      </c>
-      <c r="Q7">
-        <v>29.12485706229466</v>
-      </c>
-      <c r="R7">
-        <v>262.1237135606519</v>
-      </c>
-      <c r="S7">
-        <v>0.008998683068964283</v>
-      </c>
-      <c r="T7">
-        <v>0.008998683068964279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>5.792809666666667</v>
-      </c>
-      <c r="H8">
-        <v>17.378429</v>
-      </c>
-      <c r="I8">
-        <v>0.1345488789191562</v>
-      </c>
-      <c r="J8">
-        <v>0.1345488789191562</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>71.97801199999999</v>
-      </c>
-      <c r="N8">
-        <v>215.934036</v>
-      </c>
-      <c r="O8">
-        <v>0.9574677988575694</v>
-      </c>
-      <c r="P8">
-        <v>0.9574677988575693</v>
-      </c>
-      <c r="Q8">
-        <v>416.9549237010493</v>
-      </c>
-      <c r="R8">
-        <v>3752.594313309444</v>
-      </c>
-      <c r="S8">
-        <v>0.1288262189374781</v>
-      </c>
-      <c r="T8">
-        <v>0.1288262189374781</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>5.792809666666667</v>
-      </c>
-      <c r="H9">
-        <v>17.378429</v>
-      </c>
-      <c r="I9">
-        <v>0.1345488789191562</v>
-      </c>
-      <c r="J9">
-        <v>0.1345488789191562</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>3.197374666666666</v>
-      </c>
-      <c r="N9">
-        <v>9.592123999999998</v>
-      </c>
-      <c r="O9">
-        <v>0.04253220114243066</v>
-      </c>
-      <c r="P9">
-        <v>0.04253220114243065</v>
-      </c>
-      <c r="Q9">
-        <v>18.52178287702177</v>
-      </c>
-      <c r="R9">
-        <v>166.696045893196</v>
-      </c>
-      <c r="S9">
-        <v>0.0057226599816781</v>
-      </c>
-      <c r="T9">
-        <v>0.005722659981678098</v>
+        <v>0.1120374909379251</v>
       </c>
     </row>
   </sheetData>
